--- a/data/tc002.xlsx
+++ b/data/tc002.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20361"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC776BD1-11A7-4BEB-84B2-1136849BB424}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC2BC83-32AC-4B6C-8D54-4789F65CE277}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,31 +20,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>username</t>
+    <t>user</t>
   </si>
   <si>
-    <t>password</t>
+    <t>pass</t>
   </si>
   <si>
-    <t>admin</t>
+    <t>standard_user</t>
   </si>
   <si>
-    <t>pass123</t>
-  </si>
-  <si>
-    <t>manager</t>
-  </si>
-  <si>
-    <t>manpass</t>
+    <t>secret_sauce</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,19 +46,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF484C55"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -81,7 +74,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -362,43 +355,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>